--- a/point.xlsx
+++ b/point.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProjects\MongoDBOpera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeapadFile\PythonProjects\MongoDBOpera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71BC2A5-F9F0-4F1E-B0E4-9F14EA9AEF4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4BE1F7-69A1-4CAE-9743-DF80BDB36DD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$80</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="354">
   <si>
     <t>FIC-311PS07</t>
   </si>
@@ -1201,6 +1204,45 @@
   </si>
   <si>
     <t>HIS-210FDM02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m3/h</t>
+  </si>
+  <si>
+    <t>m3/h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N·m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1343,7 +1385,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1381,6 +1423,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1399,7 +1452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1452,6 +1505,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1738,22 +1800,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="71.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="9" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="36.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1773,13 +1837,16 @@
         <v>295</v>
       </c>
       <c r="G1" s="10">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="H1" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -1799,13 +1866,16 @@
         <v>295</v>
       </c>
       <c r="G2" s="10">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="H2" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -1825,13 +1895,16 @@
         <v>296</v>
       </c>
       <c r="G3" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H3" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -1851,13 +1924,16 @@
         <v>296</v>
       </c>
       <c r="G4" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H4" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -1877,13 +1953,16 @@
         <v>296</v>
       </c>
       <c r="G5" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H5" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -1903,13 +1982,16 @@
         <v>296</v>
       </c>
       <c r="G6" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1929,13 +2011,16 @@
         <v>296</v>
       </c>
       <c r="G7" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H7" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -1955,13 +2040,16 @@
         <v>296</v>
       </c>
       <c r="G8" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H8" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1981,13 +2069,16 @@
         <v>297</v>
       </c>
       <c r="G9" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H9" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -2007,13 +2098,16 @@
         <v>297</v>
       </c>
       <c r="G10" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H10" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -2033,13 +2127,16 @@
         <v>297</v>
       </c>
       <c r="G11" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H11" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -2059,13 +2156,16 @@
         <v>297</v>
       </c>
       <c r="G12" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H12" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -2085,13 +2185,16 @@
         <v>297</v>
       </c>
       <c r="G13" s="10">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="H13" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -2111,13 +2214,16 @@
         <v>297</v>
       </c>
       <c r="G14" s="10">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="H14" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -2137,13 +2243,16 @@
         <v>297</v>
       </c>
       <c r="G15" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H15" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -2163,13 +2272,16 @@
         <v>297</v>
       </c>
       <c r="G16" s="10">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="H16" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -2189,13 +2301,16 @@
         <v>297</v>
       </c>
       <c r="G17" s="3">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
@@ -2215,13 +2330,16 @@
         <v>297</v>
       </c>
       <c r="G18" s="3">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -2241,13 +2359,16 @@
         <v>298</v>
       </c>
       <c r="G19" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H19" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -2267,13 +2388,16 @@
         <v>298</v>
       </c>
       <c r="G20" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H20" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -2293,13 +2417,16 @@
         <v>298</v>
       </c>
       <c r="G21" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H21" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -2319,13 +2446,16 @@
         <v>298</v>
       </c>
       <c r="G22" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H22" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -2345,13 +2475,16 @@
         <v>298</v>
       </c>
       <c r="G23" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H23" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -2371,13 +2504,16 @@
         <v>298</v>
       </c>
       <c r="G24" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H24" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -2397,13 +2533,16 @@
         <v>298</v>
       </c>
       <c r="G25" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H25" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2423,13 +2562,16 @@
         <v>298</v>
       </c>
       <c r="G26" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H26" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>54</v>
       </c>
@@ -2449,13 +2591,16 @@
         <v>298</v>
       </c>
       <c r="G27" s="4">
-        <v>-5</v>
-      </c>
-      <c r="H27" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <v>1</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>55</v>
       </c>
@@ -2475,13 +2620,16 @@
         <v>298</v>
       </c>
       <c r="G28" s="4">
-        <v>-5</v>
-      </c>
-      <c r="H28" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
+        <v>1</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>56</v>
       </c>
@@ -2501,13 +2649,16 @@
         <v>298</v>
       </c>
       <c r="G29" s="4">
-        <v>-5</v>
-      </c>
-      <c r="H29" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
+        <v>1</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>57</v>
       </c>
@@ -2527,13 +2678,16 @@
         <v>298</v>
       </c>
       <c r="G30" s="4">
-        <v>-5</v>
-      </c>
-      <c r="H30" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
+        <v>1</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>58</v>
       </c>
@@ -2553,13 +2707,16 @@
         <v>298</v>
       </c>
       <c r="G31" s="4">
-        <v>-5</v>
-      </c>
-      <c r="H31" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
+        <v>1</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>59</v>
       </c>
@@ -2579,13 +2736,16 @@
         <v>298</v>
       </c>
       <c r="G32" s="4">
-        <v>-5</v>
-      </c>
-      <c r="H32" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <v>1</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>60</v>
       </c>
@@ -2605,13 +2765,16 @@
         <v>298</v>
       </c>
       <c r="G33" s="4">
-        <v>-5</v>
-      </c>
-      <c r="H33" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H33" s="10">
+        <v>1</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -2631,13 +2794,16 @@
         <v>298</v>
       </c>
       <c r="G34" s="4">
-        <v>-5</v>
-      </c>
-      <c r="H34" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10">
+        <v>1</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>15</v>
       </c>
@@ -2656,14 +2822,17 @@
       <c r="F35" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="G35" s="10">
-        <v>-5</v>
+      <c r="G35" s="4">
+        <v>0</v>
       </c>
       <c r="H35" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -2682,14 +2851,17 @@
       <c r="F36" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="G36" s="10">
-        <v>-5</v>
+      <c r="G36" s="4">
+        <v>0</v>
       </c>
       <c r="H36" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>17</v>
       </c>
@@ -2708,14 +2880,17 @@
       <c r="F37" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="G37" s="10">
-        <v>-5</v>
+      <c r="G37" s="4">
+        <v>0</v>
       </c>
       <c r="H37" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>18</v>
       </c>
@@ -2734,14 +2909,17 @@
       <c r="F38" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="G38" s="10">
-        <v>-5</v>
+      <c r="G38" s="4">
+        <v>0</v>
       </c>
       <c r="H38" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
@@ -2760,14 +2938,17 @@
       <c r="F39" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="G39" s="10">
-        <v>-5</v>
+      <c r="G39" s="4">
+        <v>0</v>
       </c>
       <c r="H39" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
@@ -2787,13 +2968,16 @@
         <v>298</v>
       </c>
       <c r="G40" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H40" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>62</v>
       </c>
@@ -2813,13 +2997,16 @@
         <v>299</v>
       </c>
       <c r="G41" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H41" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
@@ -2839,13 +3026,16 @@
         <v>299</v>
       </c>
       <c r="G42" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H42" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>30</v>
       </c>
@@ -2865,13 +3055,16 @@
         <v>299</v>
       </c>
       <c r="G43" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H43" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
@@ -2891,13 +3084,16 @@
         <v>299</v>
       </c>
       <c r="G44" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H44" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>71</v>
       </c>
@@ -2917,13 +3113,16 @@
         <v>300</v>
       </c>
       <c r="G45" s="5">
-        <v>-5</v>
+        <v>40</v>
       </c>
       <c r="H45" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>72</v>
       </c>
@@ -2943,13 +3142,16 @@
         <v>300</v>
       </c>
       <c r="G46" s="5">
-        <v>-5</v>
+        <v>40</v>
       </c>
       <c r="H46" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
@@ -2969,13 +3171,16 @@
         <v>301</v>
       </c>
       <c r="G47" s="10">
-        <v>-5</v>
+        <v>12</v>
       </c>
       <c r="H47" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
@@ -2995,13 +3200,16 @@
         <v>301</v>
       </c>
       <c r="G48" s="10">
-        <v>-5</v>
+        <v>60</v>
       </c>
       <c r="H48" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>26</v>
       </c>
@@ -3021,13 +3229,16 @@
         <v>301</v>
       </c>
       <c r="G49" s="10">
-        <v>-5</v>
+        <v>85</v>
       </c>
       <c r="H49" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>28</v>
       </c>
@@ -3047,13 +3258,16 @@
         <v>301</v>
       </c>
       <c r="G50" s="10">
-        <v>-5</v>
+        <v>85</v>
       </c>
       <c r="H50" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>23</v>
       </c>
@@ -3073,13 +3287,16 @@
         <v>301</v>
       </c>
       <c r="G51" s="10">
-        <v>-5</v>
+        <v>65</v>
       </c>
       <c r="H51" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>24</v>
       </c>
@@ -3099,13 +3316,16 @@
         <v>301</v>
       </c>
       <c r="G52" s="10">
-        <v>-5</v>
+        <v>65</v>
       </c>
       <c r="H52" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>21</v>
       </c>
@@ -3125,13 +3345,16 @@
         <v>301</v>
       </c>
       <c r="G53" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H53" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>22</v>
       </c>
@@ -3151,13 +3374,16 @@
         <v>301</v>
       </c>
       <c r="G54" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H54" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>63</v>
       </c>
@@ -3177,13 +3403,16 @@
         <v>297</v>
       </c>
       <c r="G55" s="6">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H55" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>64</v>
       </c>
@@ -3202,14 +3431,17 @@
       <c r="F56" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="G56" s="6">
-        <v>-5</v>
-      </c>
-      <c r="H56" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>342</v>
       </c>
@@ -3229,13 +3461,16 @@
         <v>302</v>
       </c>
       <c r="G57" s="7">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="H57" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>343</v>
       </c>
@@ -3254,14 +3489,17 @@
       <c r="F58" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="G58" s="7">
-        <v>-5</v>
-      </c>
-      <c r="H58" s="7">
+      <c r="G58" s="10">
+        <v>5</v>
+      </c>
+      <c r="H58" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>3</v>
       </c>
@@ -3281,13 +3519,16 @@
         <v>303</v>
       </c>
       <c r="G59" s="10">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="H59" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>65</v>
       </c>
@@ -3312,8 +3553,11 @@
       <c r="H60" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>66</v>
       </c>
@@ -3333,13 +3577,16 @@
         <v>303</v>
       </c>
       <c r="G61" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H61" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>67</v>
       </c>
@@ -3364,8 +3611,11 @@
       <c r="H62" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>4</v>
       </c>
@@ -3385,13 +3635,16 @@
         <v>303</v>
       </c>
       <c r="G63" s="10">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H63" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>68</v>
       </c>
@@ -3416,8 +3669,11 @@
       <c r="H64" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>69</v>
       </c>
@@ -3442,8 +3698,11 @@
       <c r="H65" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
@@ -3468,8 +3727,11 @@
       <c r="H66" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -3489,13 +3751,16 @@
         <v>304</v>
       </c>
       <c r="G67" s="10">
-        <v>-5</v>
+        <v>-500</v>
       </c>
       <c r="H67" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -3514,14 +3779,17 @@
       <c r="F68" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="G68" s="10">
-        <v>-5</v>
-      </c>
-      <c r="H68" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G68" s="8">
+        <v>-500</v>
+      </c>
+      <c r="H68" s="8">
+        <v>200</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>342</v>
       </c>
@@ -3540,14 +3808,17 @@
       <c r="F69" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="G69" s="8">
-        <v>-5</v>
-      </c>
-      <c r="H69" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G69" s="22">
+        <v>0</v>
+      </c>
+      <c r="H69" s="22">
+        <v>0</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>343</v>
       </c>
@@ -3566,14 +3837,17 @@
       <c r="F70" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="G70" s="8">
-        <v>-5</v>
-      </c>
-      <c r="H70" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G70" s="22">
+        <v>0</v>
+      </c>
+      <c r="H70" s="22">
+        <v>0</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>38</v>
       </c>
@@ -3598,8 +3872,11 @@
       <c r="H71" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>39</v>
       </c>
@@ -3624,8 +3901,11 @@
       <c r="H72" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>49</v>
       </c>
@@ -3650,8 +3930,11 @@
       <c r="H73" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>0</v>
       </c>
@@ -3676,8 +3959,11 @@
       <c r="H74" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>1</v>
       </c>
@@ -3702,8 +3988,11 @@
       <c r="H75" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>2</v>
       </c>
@@ -3728,8 +4017,11 @@
       <c r="H76" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>52</v>
       </c>
@@ -3754,8 +4046,11 @@
       <c r="H77" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>53</v>
       </c>
@@ -3780,8 +4075,11 @@
       <c r="H78" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
         <v>305</v>
       </c>
@@ -3806,8 +4104,11 @@
       <c r="H79" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
         <v>306</v>
       </c>
@@ -3832,14 +4133,17 @@
       <c r="H80" s="10">
         <v>0</v>
       </c>
+      <c r="I80" s="10" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="81" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
     </row>
     <row r="82" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
     </row>
   </sheetData>
   <sortState ref="A1:B78">
@@ -3847,6 +4151,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/point.xlsx
+++ b/point.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeapadFile\PythonProjects\MongoDBOpera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4BE1F7-69A1-4CAE-9743-DF80BDB36DD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90610954-2B20-4DDD-A2E3-9B3219F36481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -765,484 +765,485 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>#2浓密机溢流水浊度</t>
+  </si>
+  <si>
+    <t>#1搅拌机出料浓度</t>
+  </si>
+  <si>
+    <t>#2搅拌机出料浓度</t>
+  </si>
+  <si>
+    <t>#1浓密机进料浓度</t>
+  </si>
+  <si>
+    <t>#2浓密机进料浓度</t>
+  </si>
+  <si>
+    <t>#1浓密机出料浓度</t>
+  </si>
+  <si>
+    <t>#2浓密机出料浓度</t>
+  </si>
+  <si>
+    <t>#1搅拌机出料流量</t>
+  </si>
+  <si>
+    <t>#2搅拌机出料流量</t>
+  </si>
+  <si>
+    <t>#1浓密机进料流量</t>
+  </si>
+  <si>
+    <t>#2浓密机进料流量</t>
+  </si>
+  <si>
+    <t>#1浓密机稀释水流量DN100mm</t>
+  </si>
+  <si>
+    <t>#2浓密机稀释水流量DN100mm</t>
+  </si>
+  <si>
+    <t>#1浓密机稀释水流量DN40mm</t>
+  </si>
+  <si>
+    <t>#2浓密机稀释水流量DN40mm</t>
+  </si>
+  <si>
+    <t>#1浓密机1号泵入料阀门</t>
+  </si>
+  <si>
+    <t>#1浓密机1号泵出料阀门</t>
+  </si>
+  <si>
+    <t>#1浓密机1号泵稀释水阀门DN100mm</t>
+  </si>
+  <si>
+    <t>#1浓密机1号泵稀释水阀门DN40mm</t>
+  </si>
+  <si>
+    <t>#1浓密机2号泵入料阀门</t>
+  </si>
+  <si>
+    <t>#1浓密机2号泵出料阀门</t>
+  </si>
+  <si>
+    <t>#1浓密机2号泵稀释水阀门DN100mm</t>
+  </si>
+  <si>
+    <t>#1浓密机2号泵稀释水阀门DN40mm</t>
+  </si>
+  <si>
+    <t>#2浓密机1号泵入料阀门</t>
+  </si>
+  <si>
+    <t>#2浓密机1号泵出料阀门</t>
+  </si>
+  <si>
+    <t>#2浓密机1号泵稀释水阀门DN100mm</t>
+  </si>
+  <si>
+    <t>#2浓密机1号泵稀释水阀门DN40mm</t>
+  </si>
+  <si>
+    <t>#2浓密机2号泵入料阀门</t>
+  </si>
+  <si>
+    <t>#2浓密机2号泵出料阀门</t>
+  </si>
+  <si>
+    <t>#2浓密机2号泵稀释水阀门DN100mm</t>
+  </si>
+  <si>
+    <t>#2浓密机2号泵稀释水阀门DN40mm</t>
+  </si>
+  <si>
+    <t>#1浓密机排尾阀门</t>
+  </si>
+  <si>
+    <t>#1浓密机充填阀门</t>
+  </si>
+  <si>
+    <t>#1浓密机底流循环阀门</t>
+  </si>
+  <si>
+    <t>#2浓密机排尾阀门</t>
+  </si>
+  <si>
+    <t>#2浓密机充填阀门</t>
+  </si>
+  <si>
+    <t>#2浓密机底流循环阀门</t>
+  </si>
+  <si>
+    <t>#1搅拌机一段旋桨转速</t>
+  </si>
+  <si>
+    <t>#1搅拌机二段旋桨转速</t>
+  </si>
+  <si>
+    <t>#2搅拌机一段旋桨转速</t>
+  </si>
+  <si>
+    <t>#2搅拌机二段旋桨转速</t>
+  </si>
+  <si>
+    <t>#1搅拌机一段液位高度</t>
+  </si>
+  <si>
+    <t>#1搅拌机二段液位高度</t>
+  </si>
+  <si>
+    <t>#2搅拌机一段液位高度</t>
+  </si>
+  <si>
+    <t>#2搅拌机二段液位高度</t>
+  </si>
+  <si>
+    <t>#1水泥仓物料高度</t>
+  </si>
+  <si>
+    <t>#2水泥仓物料高度</t>
+  </si>
+  <si>
+    <t>#1浓密机泥层高度</t>
+  </si>
+  <si>
+    <t>#2浓密机泥层高度</t>
+  </si>
+  <si>
+    <t>#1浓密机絮凝剂流量</t>
+  </si>
+  <si>
+    <t>#2浓密机絮凝剂流量</t>
+  </si>
+  <si>
+    <t>#1浓密机耙架扭矩值-1</t>
+  </si>
+  <si>
+    <t>#1浓密机耙架扭矩值-2</t>
+  </si>
+  <si>
+    <t>#1浓密机耙架扭矩值-3</t>
+  </si>
+  <si>
+    <t>#1浓密机耙架扭矩值-4</t>
+  </si>
+  <si>
+    <t>#2浓密机耙架扭矩值-1</t>
+  </si>
+  <si>
+    <t>#2浓密机耙架扭矩值-2</t>
+  </si>
+  <si>
+    <t>#2浓密机耙架扭矩值-3</t>
+  </si>
+  <si>
+    <t>#2浓密机耙架扭矩值-4</t>
+  </si>
+  <si>
+    <t>#1浓密机泥层压力</t>
+  </si>
+  <si>
+    <t>#2浓密机泥层压力</t>
+  </si>
+  <si>
+    <t>#1搅拌机水泥累计传送量</t>
+  </si>
+  <si>
+    <t>#2搅拌机水泥累计传送量</t>
+  </si>
+  <si>
+    <t>Turbidity Indicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turbidity Indicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Density Indicator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flow Indicator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flow Indicator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flow Indicator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level Indicator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level Indicator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level Indicator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cement Conveyor Belt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cement Conveyor Belt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pressure Indicator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pressure Indicator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浊度计</t>
+  </si>
+  <si>
+    <t>浓度计</t>
+  </si>
+  <si>
+    <t>流量计</t>
+  </si>
+  <si>
+    <t>阀门</t>
+  </si>
+  <si>
+    <t>搅拌机</t>
+  </si>
+  <si>
+    <t>杷架</t>
+  </si>
+  <si>
+    <t>液位计</t>
+  </si>
+  <si>
+    <t>水泥传送带</t>
+  </si>
+  <si>
+    <t>耙架</t>
+  </si>
+  <si>
+    <t>压力计</t>
+  </si>
+  <si>
+    <t>HIS-210FDM01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIS-210FDM02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUTHEASTORE_PRJ_OS::DIC-311TH01B/PID.SP_Int</t>
+  </si>
+  <si>
+    <t>SOUTHEASTORE_PRJ_OS::DIC-311TH02B/PID.SP_Int</t>
+  </si>
+  <si>
+    <t>SOUTHEASTORE_PRJ_OS::FIC-311PS05/PID.SP_Int</t>
+  </si>
+  <si>
+    <t>SOUTHEASTORE_PRJ_OS::FIC-311PS07/PID.SP_Int</t>
+  </si>
+  <si>
+    <t>SOUTHEASTORE_PRJ_OS::FIC-311PS08/PID.SP_Int</t>
+  </si>
+  <si>
+    <t>SOUTHEASTORE_PRJ_OS::FIC-311PS10/PID.SP_Int</t>
+  </si>
+  <si>
+    <t>SOUTHEASTORE_PRJ_OS::FIC-311TH01B/PID.SP_Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUTHEASTORE_PRJ_OS::FIC-311TH02B/PID.SP_Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUTHEASTORE_PRJ_OS::HIS-210FDM01/CementRatioSP.SP_Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUTHEASTORE_PRJ_OS::HIS-210FDM02/CementRatioSP.SP_Int</t>
+  </si>
+  <si>
+    <t>#1 Thickener Discharge Concentration(write tag)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2 Thickener Discharge Concentration(write tag)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 Thickener Dilution Water Flow DN100mm(write tag)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2 Thickener Dilution Water Flow DN100mm(write tag)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 Thickener Dilution Water Flow DN40mm(write tag)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2 Thickener Dilution Water Flow DN40mm(write tag)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 Thickener Discharge Flow(write tag)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2 Thickener Discharge Flow(write tag)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 Mixer Cement Sand Ratio(write tag)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2 Mixer Cement Sand Ratio(write tag)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1浓密机出料浓度(写入)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2浓密机出料浓度(写入)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1浓密机稀释水流量(写入)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2浓密机稀释水流量(写入)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1浓密机底流流量(写入)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2浓密机底流流量(写入)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1搅拌机灰砂比(写入)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2搅拌机灰砂比(写入)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Density Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flow Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cement Ratio Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浓度控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浓度控制</t>
+  </si>
+  <si>
+    <t>流量控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰砂比控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIS-210FDM01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIS-210FDM02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m3/h</t>
+  </si>
+  <si>
+    <t>m3/h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>#1浓密机溢流水浊度</t>
-  </si>
-  <si>
-    <t>#2浓密机溢流水浊度</t>
-  </si>
-  <si>
-    <t>#1搅拌机出料浓度</t>
-  </si>
-  <si>
-    <t>#2搅拌机出料浓度</t>
-  </si>
-  <si>
-    <t>#1浓密机进料浓度</t>
-  </si>
-  <si>
-    <t>#2浓密机进料浓度</t>
-  </si>
-  <si>
-    <t>#1浓密机出料浓度</t>
-  </si>
-  <si>
-    <t>#2浓密机出料浓度</t>
-  </si>
-  <si>
-    <t>#1搅拌机出料流量</t>
-  </si>
-  <si>
-    <t>#2搅拌机出料流量</t>
-  </si>
-  <si>
-    <t>#1浓密机进料流量</t>
-  </si>
-  <si>
-    <t>#2浓密机进料流量</t>
-  </si>
-  <si>
-    <t>#1浓密机稀释水流量DN100mm</t>
-  </si>
-  <si>
-    <t>#2浓密机稀释水流量DN100mm</t>
-  </si>
-  <si>
-    <t>#1浓密机稀释水流量DN40mm</t>
-  </si>
-  <si>
-    <t>#2浓密机稀释水流量DN40mm</t>
-  </si>
-  <si>
-    <t>#1浓密机1号泵入料阀门</t>
-  </si>
-  <si>
-    <t>#1浓密机1号泵出料阀门</t>
-  </si>
-  <si>
-    <t>#1浓密机1号泵稀释水阀门DN100mm</t>
-  </si>
-  <si>
-    <t>#1浓密机1号泵稀释水阀门DN40mm</t>
-  </si>
-  <si>
-    <t>#1浓密机2号泵入料阀门</t>
-  </si>
-  <si>
-    <t>#1浓密机2号泵出料阀门</t>
-  </si>
-  <si>
-    <t>#1浓密机2号泵稀释水阀门DN100mm</t>
-  </si>
-  <si>
-    <t>#1浓密机2号泵稀释水阀门DN40mm</t>
-  </si>
-  <si>
-    <t>#2浓密机1号泵入料阀门</t>
-  </si>
-  <si>
-    <t>#2浓密机1号泵出料阀门</t>
-  </si>
-  <si>
-    <t>#2浓密机1号泵稀释水阀门DN100mm</t>
-  </si>
-  <si>
-    <t>#2浓密机1号泵稀释水阀门DN40mm</t>
-  </si>
-  <si>
-    <t>#2浓密机2号泵入料阀门</t>
-  </si>
-  <si>
-    <t>#2浓密机2号泵出料阀门</t>
-  </si>
-  <si>
-    <t>#2浓密机2号泵稀释水阀门DN100mm</t>
-  </si>
-  <si>
-    <t>#2浓密机2号泵稀释水阀门DN40mm</t>
-  </si>
-  <si>
-    <t>#1浓密机排尾阀门</t>
-  </si>
-  <si>
-    <t>#1浓密机充填阀门</t>
-  </si>
-  <si>
-    <t>#1浓密机底流循环阀门</t>
-  </si>
-  <si>
-    <t>#2浓密机排尾阀门</t>
-  </si>
-  <si>
-    <t>#2浓密机充填阀门</t>
-  </si>
-  <si>
-    <t>#2浓密机底流循环阀门</t>
-  </si>
-  <si>
-    <t>#1搅拌机一段旋桨转速</t>
-  </si>
-  <si>
-    <t>#1搅拌机二段旋桨转速</t>
-  </si>
-  <si>
-    <t>#2搅拌机一段旋桨转速</t>
-  </si>
-  <si>
-    <t>#2搅拌机二段旋桨转速</t>
-  </si>
-  <si>
-    <t>#1搅拌机一段液位高度</t>
-  </si>
-  <si>
-    <t>#1搅拌机二段液位高度</t>
-  </si>
-  <si>
-    <t>#2搅拌机一段液位高度</t>
-  </si>
-  <si>
-    <t>#2搅拌机二段液位高度</t>
-  </si>
-  <si>
-    <t>#1水泥仓物料高度</t>
-  </si>
-  <si>
-    <t>#2水泥仓物料高度</t>
-  </si>
-  <si>
-    <t>#1浓密机泥层高度</t>
-  </si>
-  <si>
-    <t>#2浓密机泥层高度</t>
-  </si>
-  <si>
-    <t>#1浓密机絮凝剂流量</t>
-  </si>
-  <si>
-    <t>#2浓密机絮凝剂流量</t>
-  </si>
-  <si>
-    <t>#1浓密机耙架扭矩值-1</t>
-  </si>
-  <si>
-    <t>#1浓密机耙架扭矩值-2</t>
-  </si>
-  <si>
-    <t>#1浓密机耙架扭矩值-3</t>
-  </si>
-  <si>
-    <t>#1浓密机耙架扭矩值-4</t>
-  </si>
-  <si>
-    <t>#2浓密机耙架扭矩值-1</t>
-  </si>
-  <si>
-    <t>#2浓密机耙架扭矩值-2</t>
-  </si>
-  <si>
-    <t>#2浓密机耙架扭矩值-3</t>
-  </si>
-  <si>
-    <t>#2浓密机耙架扭矩值-4</t>
-  </si>
-  <si>
-    <t>#1浓密机泥层压力</t>
-  </si>
-  <si>
-    <t>#2浓密机泥层压力</t>
-  </si>
-  <si>
-    <t>#1搅拌机水泥累计传送量</t>
-  </si>
-  <si>
-    <t>#2搅拌机水泥累计传送量</t>
-  </si>
-  <si>
-    <t>Turbidity Indicate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turbidity Indicate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Density Indicator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flow Indicator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flow Indicator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flow Indicator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Valve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Valve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Valve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level Indicator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level Indicator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level Indicator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cement Conveyor Belt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cement Conveyor Belt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pressure Indicator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pressure Indicator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浊度计</t>
-  </si>
-  <si>
-    <t>浓度计</t>
-  </si>
-  <si>
-    <t>流量计</t>
-  </si>
-  <si>
-    <t>阀门</t>
-  </si>
-  <si>
-    <t>搅拌机</t>
-  </si>
-  <si>
-    <t>杷架</t>
-  </si>
-  <si>
-    <t>液位计</t>
-  </si>
-  <si>
-    <t>水泥传送带</t>
-  </si>
-  <si>
-    <t>耙架</t>
-  </si>
-  <si>
-    <t>压力计</t>
-  </si>
-  <si>
-    <t>HIS-210FDM01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIS-210FDM02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUTHEASTORE_PRJ_OS::DIC-311TH01B/PID.SP_Int</t>
-  </si>
-  <si>
-    <t>SOUTHEASTORE_PRJ_OS::DIC-311TH02B/PID.SP_Int</t>
-  </si>
-  <si>
-    <t>SOUTHEASTORE_PRJ_OS::FIC-311PS05/PID.SP_Int</t>
-  </si>
-  <si>
-    <t>SOUTHEASTORE_PRJ_OS::FIC-311PS07/PID.SP_Int</t>
-  </si>
-  <si>
-    <t>SOUTHEASTORE_PRJ_OS::FIC-311PS08/PID.SP_Int</t>
-  </si>
-  <si>
-    <t>SOUTHEASTORE_PRJ_OS::FIC-311PS10/PID.SP_Int</t>
-  </si>
-  <si>
-    <t>SOUTHEASTORE_PRJ_OS::FIC-311TH01B/PID.SP_Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUTHEASTORE_PRJ_OS::FIC-311TH02B/PID.SP_Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUTHEASTORE_PRJ_OS::HIS-210FDM01/CementRatioSP.SP_Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUTHEASTORE_PRJ_OS::HIS-210FDM02/CementRatioSP.SP_Int</t>
-  </si>
-  <si>
-    <t>#1 Thickener Discharge Concentration(write tag)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#2 Thickener Discharge Concentration(write tag)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1 Thickener Dilution Water Flow DN100mm(write tag)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#2 Thickener Dilution Water Flow DN100mm(write tag)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1 Thickener Dilution Water Flow DN40mm(write tag)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#2 Thickener Dilution Water Flow DN40mm(write tag)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1 Thickener Discharge Flow(write tag)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#2 Thickener Discharge Flow(write tag)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1 Mixer Cement Sand Ratio(write tag)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#2 Mixer Cement Sand Ratio(write tag)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1浓密机出料浓度(写入)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#2浓密机出料浓度(写入)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1浓密机稀释水流量(写入)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#2浓密机稀释水流量(写入)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1浓密机底流流量(写入)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#2浓密机底流流量(写入)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1搅拌机灰砂比(写入)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#2搅拌机灰砂比(写入)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Density Controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flow Controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cement Ratio Controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浓度控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浓度控制</t>
-  </si>
-  <si>
-    <t>流量控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灰砂比控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIS-210FDM01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIS-210FDM02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m3/h</t>
-  </si>
-  <si>
-    <t>m3/h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rpm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m/s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N·m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mpa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1452,7 +1453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1514,6 +1515,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1800,24 +1804,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="71.6640625" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="71.625" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
+    <col min="5" max="5" width="22.75" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="9" width="8.88671875" customWidth="1"/>
-    <col min="10" max="10" width="36.5546875" customWidth="1"/>
+    <col min="7" max="9" width="8.875" customWidth="1"/>
+    <col min="10" max="10" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1828,13 +1832,13 @@
         <v>143</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>213</v>
+        <v>350</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G1" s="10">
         <v>3</v>
@@ -1843,10 +1847,16 @@
         <v>35</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="J1" s="23">
+        <v>1</v>
+      </c>
+      <c r="K1" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -1857,13 +1867,13 @@
         <v>144</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G2" s="10">
         <v>2</v>
@@ -1872,10 +1882,16 @@
         <v>30</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="J2" s="23">
+        <v>2</v>
+      </c>
+      <c r="K2" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -1886,13 +1902,13 @@
         <v>145</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G3" s="10">
         <v>0</v>
@@ -1901,10 +1917,16 @@
         <v>0</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="J3" s="23">
+        <v>0</v>
+      </c>
+      <c r="K3" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -1915,13 +1937,13 @@
         <v>146</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G4" s="10">
         <v>0</v>
@@ -1930,10 +1952,16 @@
         <v>0</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="J4" s="23">
+        <v>0</v>
+      </c>
+      <c r="K4" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -1944,13 +1972,13 @@
         <v>147</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G5" s="10">
         <v>0</v>
@@ -1959,10 +1987,16 @@
         <v>35</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="J5" s="23">
+        <v>1</v>
+      </c>
+      <c r="K5" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -1973,13 +2007,13 @@
         <v>148</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G6" s="10">
         <v>0</v>
@@ -1988,10 +2022,16 @@
         <v>40</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="J6" s="23">
+        <v>2</v>
+      </c>
+      <c r="K6" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -2002,13 +2042,13 @@
         <v>149</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G7" s="10">
         <v>0</v>
@@ -2017,10 +2057,16 @@
         <v>60</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="J7" s="23">
+        <v>1</v>
+      </c>
+      <c r="K7" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -2031,13 +2077,13 @@
         <v>150</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G8" s="10">
         <v>0</v>
@@ -2046,10 +2092,16 @@
         <v>50</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="J8" s="23">
+        <v>2</v>
+      </c>
+      <c r="K8" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -2060,13 +2112,13 @@
         <v>151</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G9" s="10">
         <v>0</v>
@@ -2075,10 +2127,16 @@
         <v>150</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="J9" s="23">
+        <v>0</v>
+      </c>
+      <c r="K9" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -2089,13 +2147,13 @@
         <v>152</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G10" s="10">
         <v>0</v>
@@ -2104,10 +2162,16 @@
         <v>400</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="J10" s="23">
+        <v>0</v>
+      </c>
+      <c r="K10" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -2118,13 +2182,13 @@
         <v>153</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G11" s="10">
         <v>0</v>
@@ -2133,10 +2197,16 @@
         <v>1500</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="J11" s="23">
+        <v>1</v>
+      </c>
+      <c r="K11" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -2147,13 +2217,13 @@
         <v>154</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G12" s="10">
         <v>0</v>
@@ -2162,10 +2232,16 @@
         <v>1500</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="J12" s="23">
+        <v>2</v>
+      </c>
+      <c r="K12" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -2176,13 +2252,13 @@
         <v>155</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G13" s="10">
         <v>-2</v>
@@ -2191,10 +2267,16 @@
         <v>100</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -2205,13 +2287,13 @@
         <v>156</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G14" s="10">
         <v>-2</v>
@@ -2220,10 +2302,16 @@
         <v>70</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -2234,13 +2322,13 @@
         <v>157</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G15" s="10">
         <v>0</v>
@@ -2249,10 +2337,16 @@
         <v>1</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -2263,13 +2357,13 @@
         <v>158</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G16" s="10">
         <v>-1</v>
@@ -2278,10 +2372,16 @@
         <v>1</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
+      <c r="K16" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -2295,10 +2395,10 @@
         <v>42</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -2307,10 +2407,16 @@
         <v>400</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
@@ -2324,10 +2430,10 @@
         <v>43</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -2336,10 +2442,16 @@
         <v>300</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+      <c r="K18" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -2350,13 +2462,13 @@
         <v>161</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G19" s="10">
         <v>0</v>
@@ -2365,10 +2477,16 @@
         <v>1</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J19" s="23">
+        <v>1</v>
+      </c>
+      <c r="K19" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -2379,13 +2497,13 @@
         <v>162</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G20" s="10">
         <v>0</v>
@@ -2394,10 +2512,16 @@
         <v>1</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J20" s="23">
+        <v>1</v>
+      </c>
+      <c r="K20" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -2408,13 +2532,13 @@
         <v>163</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G21" s="10">
         <v>0</v>
@@ -2423,10 +2547,16 @@
         <v>1</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J21" s="23">
+        <v>1</v>
+      </c>
+      <c r="K21" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -2437,13 +2567,13 @@
         <v>164</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G22" s="10">
         <v>0</v>
@@ -2452,10 +2582,16 @@
         <v>1</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J22" s="23">
+        <v>1</v>
+      </c>
+      <c r="K22" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -2466,13 +2602,13 @@
         <v>165</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G23" s="10">
         <v>0</v>
@@ -2481,10 +2617,16 @@
         <v>1</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J23" s="23">
+        <v>1</v>
+      </c>
+      <c r="K23" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -2495,13 +2637,13 @@
         <v>166</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G24" s="10">
         <v>0</v>
@@ -2510,10 +2652,16 @@
         <v>1</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J24" s="23">
+        <v>1</v>
+      </c>
+      <c r="K24" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -2524,13 +2672,13 @@
         <v>167</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G25" s="10">
         <v>0</v>
@@ -2539,10 +2687,16 @@
         <v>1</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J25" s="23">
+        <v>1</v>
+      </c>
+      <c r="K25" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -2553,13 +2707,13 @@
         <v>168</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G26" s="10">
         <v>0</v>
@@ -2568,10 +2722,16 @@
         <v>1</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J26" s="23">
+        <v>1</v>
+      </c>
+      <c r="K26" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>54</v>
       </c>
@@ -2582,13 +2742,13 @@
         <v>169</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G27" s="4">
         <v>0</v>
@@ -2597,10 +2757,16 @@
         <v>1</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J27" s="23">
+        <v>2</v>
+      </c>
+      <c r="K27" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>55</v>
       </c>
@@ -2611,13 +2777,13 @@
         <v>170</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
@@ -2626,10 +2792,16 @@
         <v>1</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J28" s="23">
+        <v>2</v>
+      </c>
+      <c r="K28" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>56</v>
       </c>
@@ -2640,13 +2812,13 @@
         <v>171</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G29" s="4">
         <v>0</v>
@@ -2655,10 +2827,16 @@
         <v>1</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J29" s="23">
+        <v>2</v>
+      </c>
+      <c r="K29" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>57</v>
       </c>
@@ -2669,13 +2847,13 @@
         <v>172</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G30" s="4">
         <v>0</v>
@@ -2684,10 +2862,16 @@
         <v>1</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J30" s="23">
+        <v>2</v>
+      </c>
+      <c r="K30" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>58</v>
       </c>
@@ -2698,13 +2882,13 @@
         <v>173</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G31" s="4">
         <v>0</v>
@@ -2713,10 +2897,16 @@
         <v>1</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J31" s="23">
+        <v>2</v>
+      </c>
+      <c r="K31" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>59</v>
       </c>
@@ -2727,13 +2917,13 @@
         <v>174</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G32" s="4">
         <v>0</v>
@@ -2742,10 +2932,16 @@
         <v>1</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J32" s="23">
+        <v>2</v>
+      </c>
+      <c r="K32" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>60</v>
       </c>
@@ -2756,13 +2952,13 @@
         <v>175</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G33" s="4">
         <v>0</v>
@@ -2771,10 +2967,16 @@
         <v>1</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J33" s="23">
+        <v>2</v>
+      </c>
+      <c r="K33" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -2785,13 +2987,13 @@
         <v>176</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G34" s="4">
         <v>0</v>
@@ -2800,10 +3002,16 @@
         <v>1</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J34" s="23">
+        <v>2</v>
+      </c>
+      <c r="K34" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>15</v>
       </c>
@@ -2814,13 +3022,13 @@
         <v>177</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G35" s="4">
         <v>0</v>
@@ -2829,10 +3037,16 @@
         <v>1</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J35" s="23">
+        <v>1</v>
+      </c>
+      <c r="K35" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -2843,13 +3057,13 @@
         <v>178</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G36" s="4">
         <v>0</v>
@@ -2858,10 +3072,16 @@
         <v>1</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J36" s="23">
+        <v>1</v>
+      </c>
+      <c r="K36" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>17</v>
       </c>
@@ -2872,13 +3092,13 @@
         <v>179</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G37" s="4">
         <v>0</v>
@@ -2887,10 +3107,16 @@
         <v>1</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J37" s="23">
+        <v>1</v>
+      </c>
+      <c r="K37" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>18</v>
       </c>
@@ -2901,13 +3127,13 @@
         <v>180</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G38" s="4">
         <v>0</v>
@@ -2916,10 +3142,16 @@
         <v>1</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J38" s="23">
+        <v>2</v>
+      </c>
+      <c r="K38" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
@@ -2930,13 +3162,13 @@
         <v>181</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G39" s="4">
         <v>0</v>
@@ -2945,10 +3177,16 @@
         <v>1</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J39" s="23">
+        <v>2</v>
+      </c>
+      <c r="K39" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
@@ -2959,13 +3197,13 @@
         <v>182</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G40" s="10">
         <v>0</v>
@@ -2974,10 +3212,16 @@
         <v>1</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J40" s="23">
+        <v>2</v>
+      </c>
+      <c r="K40" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>62</v>
       </c>
@@ -2988,13 +3232,13 @@
         <v>183</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G41" s="10">
         <v>0</v>
@@ -3003,10 +3247,16 @@
         <v>50</v>
       </c>
       <c r="I41" s="20" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="J41" s="23">
+        <v>0</v>
+      </c>
+      <c r="K41" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
@@ -3017,13 +3267,13 @@
         <v>184</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G42" s="10">
         <v>0</v>
@@ -3032,10 +3282,16 @@
         <v>50</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="J42" s="23">
+        <v>0</v>
+      </c>
+      <c r="K42" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>30</v>
       </c>
@@ -3046,13 +3302,13 @@
         <v>185</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G43" s="10">
         <v>0</v>
@@ -3061,10 +3317,16 @@
         <v>50</v>
       </c>
       <c r="I43" s="20" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="J43" s="23">
+        <v>0</v>
+      </c>
+      <c r="K43" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
@@ -3075,13 +3337,13 @@
         <v>186</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G44" s="10">
         <v>0</v>
@@ -3090,10 +3352,16 @@
         <v>50</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="J44" s="23">
+        <v>0</v>
+      </c>
+      <c r="K44" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>71</v>
       </c>
@@ -3107,10 +3375,10 @@
         <v>46</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G45" s="5">
         <v>40</v>
@@ -3119,10 +3387,16 @@
         <v>50</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="J45" s="23">
+        <v>1</v>
+      </c>
+      <c r="K45" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>72</v>
       </c>
@@ -3136,10 +3410,10 @@
         <v>47</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G46" s="5">
         <v>40</v>
@@ -3148,10 +3422,16 @@
         <v>50</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="J46" s="23">
+        <v>2</v>
+      </c>
+      <c r="K46" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
@@ -3162,13 +3442,13 @@
         <v>189</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G47" s="10">
         <v>12</v>
@@ -3177,10 +3457,16 @@
         <v>20</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="J47" s="23">
+        <v>0</v>
+      </c>
+      <c r="K47" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
@@ -3191,13 +3477,13 @@
         <v>190</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G48" s="10">
         <v>60</v>
@@ -3206,10 +3492,16 @@
         <v>65</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="J48" s="23">
+        <v>0</v>
+      </c>
+      <c r="K48" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>26</v>
       </c>
@@ -3220,13 +3512,13 @@
         <v>191</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G49" s="10">
         <v>85</v>
@@ -3235,10 +3527,16 @@
         <v>95</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="J49" s="23">
+        <v>0</v>
+      </c>
+      <c r="K49" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>28</v>
       </c>
@@ -3249,13 +3547,13 @@
         <v>192</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G50" s="10">
         <v>85</v>
@@ -3264,10 +3562,16 @@
         <v>100</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="J50" s="23">
+        <v>0</v>
+      </c>
+      <c r="K50" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>23</v>
       </c>
@@ -3278,13 +3582,13 @@
         <v>193</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G51" s="10">
         <v>65</v>
@@ -3293,10 +3597,16 @@
         <v>70</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="J51" s="23">
+        <v>0</v>
+      </c>
+      <c r="K51" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>24</v>
       </c>
@@ -3307,13 +3617,13 @@
         <v>194</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G52" s="10">
         <v>65</v>
@@ -3322,10 +3632,16 @@
         <v>70</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="J52" s="23">
+        <v>0</v>
+      </c>
+      <c r="K52" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>21</v>
       </c>
@@ -3336,13 +3652,13 @@
         <v>195</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G53" s="10">
         <v>0</v>
@@ -3351,10 +3667,16 @@
         <v>0</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="J53" s="6">
+        <v>1</v>
+      </c>
+      <c r="K53" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>22</v>
       </c>
@@ -3365,13 +3687,13 @@
         <v>196</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G54" s="10">
         <v>0</v>
@@ -3380,10 +3702,16 @@
         <v>0</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="J54" s="6">
+        <v>2</v>
+      </c>
+      <c r="K54" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="6" t="s">
         <v>63</v>
       </c>
@@ -3394,13 +3722,13 @@
         <v>197</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G55" s="6">
         <v>0</v>
@@ -3409,10 +3737,16 @@
         <v>0</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="J55" s="6">
+        <v>1</v>
+      </c>
+      <c r="K55" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
         <v>64</v>
       </c>
@@ -3423,13 +3757,13 @@
         <v>198</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G56" s="7">
         <v>0</v>
@@ -3438,12 +3772,18 @@
         <v>0</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="J56" s="6">
+        <v>2</v>
+      </c>
+      <c r="K56" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>121</v>
@@ -3455,10 +3795,10 @@
         <v>44</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G57" s="7">
         <v>10</v>
@@ -3467,12 +3807,18 @@
         <v>10</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="J57" s="6">
+        <v>0</v>
+      </c>
+      <c r="K57" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>122</v>
@@ -3484,10 +3830,10 @@
         <v>45</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G58" s="10">
         <v>5</v>
@@ -3496,10 +3842,16 @@
         <v>10</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="J58" s="6">
+        <v>0</v>
+      </c>
+      <c r="K58" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>3</v>
       </c>
@@ -3510,13 +3862,13 @@
         <v>201</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G59" s="10">
         <v>-1</v>
@@ -3525,10 +3877,16 @@
         <v>10</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="J59" s="6">
+        <v>1</v>
+      </c>
+      <c r="K59" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>65</v>
       </c>
@@ -3539,13 +3897,13 @@
         <v>202</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G60" s="10">
         <v>-5</v>
@@ -3554,10 +3912,16 @@
         <v>10</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1</v>
+      </c>
+      <c r="K60" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>66</v>
       </c>
@@ -3568,13 +3932,13 @@
         <v>203</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G61" s="10">
         <v>0</v>
@@ -3583,10 +3947,16 @@
         <v>10</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1</v>
+      </c>
+      <c r="K61" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>67</v>
       </c>
@@ -3597,13 +3967,13 @@
         <v>204</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G62" s="10">
         <v>-5</v>
@@ -3612,10 +3982,16 @@
         <v>10</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1</v>
+      </c>
+      <c r="K62" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>4</v>
       </c>
@@ -3626,13 +4002,13 @@
         <v>205</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G63" s="10">
         <v>0</v>
@@ -3641,10 +4017,16 @@
         <v>10</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="J63" s="2">
+        <v>2</v>
+      </c>
+      <c r="K63" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>68</v>
       </c>
@@ -3655,13 +4037,13 @@
         <v>206</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G64" s="10">
         <v>-5</v>
@@ -3670,10 +4052,16 @@
         <v>10</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="J64" s="2">
+        <v>2</v>
+      </c>
+      <c r="K64" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>69</v>
       </c>
@@ -3684,13 +4072,13 @@
         <v>207</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G65" s="10">
         <v>-5</v>
@@ -3699,10 +4087,16 @@
         <v>10</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="J65" s="2">
+        <v>2</v>
+      </c>
+      <c r="K65" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
@@ -3713,13 +4107,13 @@
         <v>208</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G66" s="10">
         <v>-5</v>
@@ -3728,10 +4122,16 @@
         <v>10</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="J66" s="2">
+        <v>2</v>
+      </c>
+      <c r="K66" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -3742,13 +4142,13 @@
         <v>209</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G67" s="10">
         <v>-500</v>
@@ -3757,10 +4157,16 @@
         <v>500</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+      <c r="K67" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -3771,13 +4177,13 @@
         <v>210</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G68" s="8">
         <v>-500</v>
@@ -3788,10 +4194,16 @@
       <c r="I68" s="10" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="23">
+        <v>2</v>
+      </c>
+      <c r="K68" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>133</v>
@@ -3800,13 +4212,13 @@
         <v>211</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G69" s="22">
         <v>0</v>
@@ -3815,12 +4227,18 @@
         <v>0</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="J69" s="23">
+        <v>0</v>
+      </c>
+      <c r="K69" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>134</v>
@@ -3829,13 +4247,13 @@
         <v>212</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G70" s="22">
         <v>0</v>
@@ -3844,27 +4262,33 @@
         <v>0</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="J70" s="8">
+        <v>0</v>
+      </c>
+      <c r="K70" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G71" s="10">
         <v>0</v>
@@ -3873,27 +4297,33 @@
         <v>0</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J71" s="10">
+        <v>1</v>
+      </c>
+      <c r="K71" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G72" s="10">
         <v>0</v>
@@ -3902,85 +4332,103 @@
         <v>0</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J72" s="10">
+        <v>2</v>
+      </c>
+      <c r="K72" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="16" t="s">
         <v>49</v>
       </c>
       <c r="B73" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="G73" s="10">
+        <v>0</v>
+      </c>
+      <c r="H73" s="10">
+        <v>0</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="J73" s="10">
+        <v>1</v>
+      </c>
+      <c r="K73" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A74" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C74" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="D73" s="15" t="s">
+      <c r="D74" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="E73" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="G73" s="10">
-        <v>0</v>
-      </c>
-      <c r="H73" s="10">
-        <v>0</v>
-      </c>
-      <c r="I73" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="17" t="s">
+      <c r="E74" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="G74" s="10">
+        <v>0</v>
+      </c>
+      <c r="H74" s="10">
+        <v>0</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="J74" s="10">
+        <v>2</v>
+      </c>
+      <c r="K74" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A75" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C75" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="D74" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="F74" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="G74" s="10">
-        <v>0</v>
-      </c>
-      <c r="H74" s="10">
-        <v>0</v>
-      </c>
-      <c r="I74" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>321</v>
-      </c>
       <c r="D75" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G75" s="10">
         <v>0</v>
@@ -3989,27 +4437,33 @@
         <v>0</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J75" s="10">
+        <v>1</v>
+      </c>
+      <c r="K75" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G76" s="10">
         <v>0</v>
@@ -4018,27 +4472,33 @@
         <v>0</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J76" s="10">
+        <v>2</v>
+      </c>
+      <c r="K76" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G77" s="10">
         <v>0</v>
@@ -4047,85 +4507,103 @@
         <v>0</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J77" s="10">
+        <v>1</v>
+      </c>
+      <c r="K77" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B78" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="G78" s="10">
+        <v>0</v>
+      </c>
+      <c r="H78" s="10">
+        <v>0</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="J78" s="10">
+        <v>2</v>
+      </c>
+      <c r="K78" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A79" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="B79" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C79" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D79" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="E79" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="F78" s="15" t="s">
+      <c r="F79" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="G78" s="10">
-        <v>0</v>
-      </c>
-      <c r="H78" s="10">
-        <v>0</v>
-      </c>
-      <c r="I78" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="18" t="s">
+      <c r="G79" s="10">
+        <v>0</v>
+      </c>
+      <c r="H79" s="10">
+        <v>0</v>
+      </c>
+      <c r="I79" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="J79" s="10">
+        <v>0</v>
+      </c>
+      <c r="K79" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A80" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B80" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C80" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D80" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="E79" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="G79" s="10">
-        <v>0</v>
-      </c>
-      <c r="H79" s="10">
-        <v>0</v>
-      </c>
-      <c r="I79" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="B80" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>334</v>
-      </c>
       <c r="E80" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G80" s="10">
         <v>0</v>
@@ -4134,14 +4612,20 @@
         <v>0</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="J80" s="10">
+        <v>0</v>
+      </c>
+      <c r="K80" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G81" s="21"/>
       <c r="H81" s="21"/>
     </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G82" s="21"/>
       <c r="H82" s="21"/>
     </row>

--- a/point.xlsx
+++ b/point.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeapadFile\PythonProjects\MongoDBOpera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\MongoDBOpera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90610954-2B20-4DDD-A2E3-9B3219F36481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="381">
   <si>
     <t>FIC-311PS07</t>
   </si>
@@ -1244,14 +1243,106 @@
   </si>
   <si>
     <t>MPa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WI-210FDM02</t>
+  </si>
+  <si>
+    <t>Cement conveyor belt</t>
+  </si>
+  <si>
+    <t>#2水泥传送速度</t>
+  </si>
+  <si>
+    <t>WQI-210FDM01</t>
+  </si>
+  <si>
+    <t>#1水泥累计传送量</t>
+  </si>
+  <si>
+    <t>WQI-210FDM02</t>
+  </si>
+  <si>
+    <t>#2水泥累计传送量</t>
+  </si>
+  <si>
+    <t>Cement conveyor belt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泥传送带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泥传送带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泥传送带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2 cement conveying speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1 cement cumulative delivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2 cement cumulative delivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DI-311FL01D</t>
+  </si>
+  <si>
+    <t>Concentration Indicator</t>
+  </si>
+  <si>
+    <t>#1 Thickener flocculant Concentration</t>
+  </si>
+  <si>
+    <t>SOUTHEASTORE_PRJ_OS::DI-311FL01D/MonAnalog.PV#Value</t>
+  </si>
+  <si>
+    <t>#1浓密机絮凝剂浓度</t>
+  </si>
+  <si>
+    <t>DI-311FL01C</t>
+  </si>
+  <si>
+    <t>#2 Thickener flocculant Concentration</t>
+  </si>
+  <si>
+    <t>SOUTHEASTORE_PRJ_OS::DI-311FL01C/MonAnalog.PV#Value</t>
+  </si>
+  <si>
+    <t>#2浓密机絮凝剂浓度</t>
+  </si>
+  <si>
+    <t>浓度计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浓度计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1345,8 +1436,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1383,6 +1489,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1453,7 +1571,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1511,13 +1629,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1803,11 +1927,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1849,10 +1973,10 @@
       <c r="I1" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="J1" s="23">
-        <v>1</v>
-      </c>
-      <c r="K1" s="23">
+      <c r="J1" s="22">
+        <v>1</v>
+      </c>
+      <c r="K1" s="22">
         <v>0</v>
       </c>
     </row>
@@ -1884,10 +2008,10 @@
       <c r="I2" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="22">
         <v>2</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="22">
         <v>0</v>
       </c>
     </row>
@@ -1919,10 +2043,10 @@
       <c r="I3" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="J3" s="23">
-        <v>0</v>
-      </c>
-      <c r="K3" s="23">
+      <c r="J3" s="22">
+        <v>0</v>
+      </c>
+      <c r="K3" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1954,10 +2078,10 @@
       <c r="I4" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="J4" s="23">
-        <v>0</v>
-      </c>
-      <c r="K4" s="23">
+      <c r="J4" s="22">
+        <v>0</v>
+      </c>
+      <c r="K4" s="22">
         <v>2</v>
       </c>
     </row>
@@ -1989,10 +2113,10 @@
       <c r="I5" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="J5" s="23">
-        <v>1</v>
-      </c>
-      <c r="K5" s="23">
+      <c r="J5" s="22">
+        <v>1</v>
+      </c>
+      <c r="K5" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2024,10 +2148,10 @@
       <c r="I6" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="22">
         <v>2</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2059,10 +2183,10 @@
       <c r="I7" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="J7" s="23">
-        <v>1</v>
-      </c>
-      <c r="K7" s="23">
+      <c r="J7" s="22">
+        <v>1</v>
+      </c>
+      <c r="K7" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2094,10 +2218,10 @@
       <c r="I8" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="22">
         <v>2</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2129,10 +2253,10 @@
       <c r="I9" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="J9" s="23">
-        <v>0</v>
-      </c>
-      <c r="K9" s="23">
+      <c r="J9" s="22">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22">
         <v>1</v>
       </c>
     </row>
@@ -2164,10 +2288,10 @@
       <c r="I10" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="J10" s="23">
-        <v>0</v>
-      </c>
-      <c r="K10" s="23">
+      <c r="J10" s="22">
+        <v>0</v>
+      </c>
+      <c r="K10" s="22">
         <v>2</v>
       </c>
     </row>
@@ -2199,10 +2323,10 @@
       <c r="I11" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="J11" s="23">
-        <v>1</v>
-      </c>
-      <c r="K11" s="23">
+      <c r="J11" s="22">
+        <v>1</v>
+      </c>
+      <c r="K11" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2234,10 +2358,10 @@
       <c r="I12" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="22">
         <v>2</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2272,7 +2396,7 @@
       <c r="J13" s="2">
         <v>1</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2307,7 +2431,7 @@
       <c r="J14" s="2">
         <v>2</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2342,7 +2466,7 @@
       <c r="J15" s="2">
         <v>1</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2377,7 +2501,7 @@
       <c r="J16" s="2">
         <v>2</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2412,7 +2536,7 @@
       <c r="J17" s="2">
         <v>1</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2447,7 +2571,7 @@
       <c r="J18" s="2">
         <v>2</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2479,10 +2603,10 @@
       <c r="I19" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="J19" s="23">
-        <v>1</v>
-      </c>
-      <c r="K19" s="23">
+      <c r="J19" s="22">
+        <v>1</v>
+      </c>
+      <c r="K19" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2514,10 +2638,10 @@
       <c r="I20" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="J20" s="23">
-        <v>1</v>
-      </c>
-      <c r="K20" s="23">
+      <c r="J20" s="22">
+        <v>1</v>
+      </c>
+      <c r="K20" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2549,10 +2673,10 @@
       <c r="I21" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="J21" s="23">
-        <v>1</v>
-      </c>
-      <c r="K21" s="23">
+      <c r="J21" s="22">
+        <v>1</v>
+      </c>
+      <c r="K21" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2584,10 +2708,10 @@
       <c r="I22" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="J22" s="23">
-        <v>1</v>
-      </c>
-      <c r="K22" s="23">
+      <c r="J22" s="22">
+        <v>1</v>
+      </c>
+      <c r="K22" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2619,10 +2743,10 @@
       <c r="I23" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="J23" s="23">
-        <v>1</v>
-      </c>
-      <c r="K23" s="23">
+      <c r="J23" s="22">
+        <v>1</v>
+      </c>
+      <c r="K23" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2654,10 +2778,10 @@
       <c r="I24" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="J24" s="23">
-        <v>1</v>
-      </c>
-      <c r="K24" s="23">
+      <c r="J24" s="22">
+        <v>1</v>
+      </c>
+      <c r="K24" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2689,10 +2813,10 @@
       <c r="I25" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="J25" s="23">
-        <v>1</v>
-      </c>
-      <c r="K25" s="23">
+      <c r="J25" s="22">
+        <v>1</v>
+      </c>
+      <c r="K25" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2724,10 +2848,10 @@
       <c r="I26" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="J26" s="23">
-        <v>1</v>
-      </c>
-      <c r="K26" s="23">
+      <c r="J26" s="22">
+        <v>1</v>
+      </c>
+      <c r="K26" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2759,10 +2883,10 @@
       <c r="I27" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="22">
         <v>2</v>
       </c>
-      <c r="K27" s="23">
+      <c r="K27" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2794,10 +2918,10 @@
       <c r="I28" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="22">
         <v>2</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K28" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2829,10 +2953,10 @@
       <c r="I29" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="22">
         <v>2</v>
       </c>
-      <c r="K29" s="23">
+      <c r="K29" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2864,10 +2988,10 @@
       <c r="I30" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="22">
         <v>2</v>
       </c>
-      <c r="K30" s="23">
+      <c r="K30" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2899,10 +3023,10 @@
       <c r="I31" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="22">
         <v>2</v>
       </c>
-      <c r="K31" s="23">
+      <c r="K31" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2934,10 +3058,10 @@
       <c r="I32" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="22">
         <v>2</v>
       </c>
-      <c r="K32" s="23">
+      <c r="K32" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2969,10 +3093,10 @@
       <c r="I33" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="22">
         <v>2</v>
       </c>
-      <c r="K33" s="23">
+      <c r="K33" s="22">
         <v>0</v>
       </c>
     </row>
@@ -3004,10 +3128,10 @@
       <c r="I34" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="22">
         <v>2</v>
       </c>
-      <c r="K34" s="23">
+      <c r="K34" s="22">
         <v>0</v>
       </c>
     </row>
@@ -3039,10 +3163,10 @@
       <c r="I35" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="J35" s="23">
-        <v>1</v>
-      </c>
-      <c r="K35" s="23">
+      <c r="J35" s="22">
+        <v>1</v>
+      </c>
+      <c r="K35" s="22">
         <v>0</v>
       </c>
     </row>
@@ -3074,10 +3198,10 @@
       <c r="I36" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="J36" s="23">
-        <v>1</v>
-      </c>
-      <c r="K36" s="23">
+      <c r="J36" s="22">
+        <v>1</v>
+      </c>
+      <c r="K36" s="22">
         <v>0</v>
       </c>
     </row>
@@ -3109,10 +3233,10 @@
       <c r="I37" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="J37" s="23">
-        <v>1</v>
-      </c>
-      <c r="K37" s="23">
+      <c r="J37" s="22">
+        <v>1</v>
+      </c>
+      <c r="K37" s="22">
         <v>0</v>
       </c>
     </row>
@@ -3144,10 +3268,10 @@
       <c r="I38" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="22">
         <v>2</v>
       </c>
-      <c r="K38" s="23">
+      <c r="K38" s="22">
         <v>0</v>
       </c>
     </row>
@@ -3179,10 +3303,10 @@
       <c r="I39" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J39" s="22">
         <v>2</v>
       </c>
-      <c r="K39" s="23">
+      <c r="K39" s="22">
         <v>0</v>
       </c>
     </row>
@@ -3214,10 +3338,10 @@
       <c r="I40" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J40" s="22">
         <v>2</v>
       </c>
-      <c r="K40" s="23">
+      <c r="K40" s="22">
         <v>0</v>
       </c>
     </row>
@@ -3249,10 +3373,10 @@
       <c r="I41" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="J41" s="23">
-        <v>0</v>
-      </c>
-      <c r="K41" s="23">
+      <c r="J41" s="22">
+        <v>0</v>
+      </c>
+      <c r="K41" s="22">
         <v>1</v>
       </c>
     </row>
@@ -3284,10 +3408,10 @@
       <c r="I42" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="J42" s="23">
-        <v>0</v>
-      </c>
-      <c r="K42" s="23">
+      <c r="J42" s="22">
+        <v>0</v>
+      </c>
+      <c r="K42" s="22">
         <v>1</v>
       </c>
     </row>
@@ -3319,10 +3443,10 @@
       <c r="I43" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="J43" s="23">
-        <v>0</v>
-      </c>
-      <c r="K43" s="23">
+      <c r="J43" s="22">
+        <v>0</v>
+      </c>
+      <c r="K43" s="22">
         <v>2</v>
       </c>
     </row>
@@ -3354,10 +3478,10 @@
       <c r="I44" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="J44" s="23">
-        <v>0</v>
-      </c>
-      <c r="K44" s="23">
+      <c r="J44" s="22">
+        <v>0</v>
+      </c>
+      <c r="K44" s="22">
         <v>2</v>
       </c>
     </row>
@@ -3389,10 +3513,10 @@
       <c r="I45" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="J45" s="23">
-        <v>1</v>
-      </c>
-      <c r="K45" s="23">
+      <c r="J45" s="22">
+        <v>1</v>
+      </c>
+      <c r="K45" s="22">
         <v>0</v>
       </c>
     </row>
@@ -3424,10 +3548,10 @@
       <c r="I46" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="J46" s="23">
+      <c r="J46" s="22">
         <v>2</v>
       </c>
-      <c r="K46" s="23">
+      <c r="K46" s="22">
         <v>0</v>
       </c>
     </row>
@@ -3459,10 +3583,10 @@
       <c r="I47" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="J47" s="23">
-        <v>0</v>
-      </c>
-      <c r="K47" s="23">
+      <c r="J47" s="22">
+        <v>0</v>
+      </c>
+      <c r="K47" s="22">
         <v>1</v>
       </c>
     </row>
@@ -3494,10 +3618,10 @@
       <c r="I48" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="J48" s="23">
-        <v>0</v>
-      </c>
-      <c r="K48" s="23">
+      <c r="J48" s="22">
+        <v>0</v>
+      </c>
+      <c r="K48" s="22">
         <v>1</v>
       </c>
     </row>
@@ -3529,10 +3653,10 @@
       <c r="I49" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="J49" s="23">
-        <v>0</v>
-      </c>
-      <c r="K49" s="23">
+      <c r="J49" s="22">
+        <v>0</v>
+      </c>
+      <c r="K49" s="22">
         <v>2</v>
       </c>
     </row>
@@ -3564,10 +3688,10 @@
       <c r="I50" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="J50" s="23">
-        <v>0</v>
-      </c>
-      <c r="K50" s="23">
+      <c r="J50" s="22">
+        <v>0</v>
+      </c>
+      <c r="K50" s="22">
         <v>2</v>
       </c>
     </row>
@@ -3599,10 +3723,10 @@
       <c r="I51" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="J51" s="23">
-        <v>0</v>
-      </c>
-      <c r="K51" s="23">
+      <c r="J51" s="22">
+        <v>0</v>
+      </c>
+      <c r="K51" s="22">
         <v>0</v>
       </c>
     </row>
@@ -3634,10 +3758,10 @@
       <c r="I52" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="J52" s="23">
-        <v>0</v>
-      </c>
-      <c r="K52" s="23">
+      <c r="J52" s="22">
+        <v>0</v>
+      </c>
+      <c r="K52" s="22">
         <v>0</v>
       </c>
     </row>
@@ -3672,7 +3796,7 @@
       <c r="J53" s="6">
         <v>1</v>
       </c>
-      <c r="K53" s="23">
+      <c r="K53" s="22">
         <v>0</v>
       </c>
     </row>
@@ -3707,7 +3831,7 @@
       <c r="J54" s="6">
         <v>2</v>
       </c>
-      <c r="K54" s="23">
+      <c r="K54" s="22">
         <v>0</v>
       </c>
     </row>
@@ -3742,7 +3866,7 @@
       <c r="J55" s="6">
         <v>1</v>
       </c>
-      <c r="K55" s="23">
+      <c r="K55" s="22">
         <v>0</v>
       </c>
     </row>
@@ -3777,7 +3901,7 @@
       <c r="J56" s="6">
         <v>2</v>
       </c>
-      <c r="K56" s="23">
+      <c r="K56" s="22">
         <v>0</v>
       </c>
     </row>
@@ -3882,7 +4006,7 @@
       <c r="J59" s="6">
         <v>1</v>
       </c>
-      <c r="K59" s="23">
+      <c r="K59" s="22">
         <v>0</v>
       </c>
     </row>
@@ -3917,7 +4041,7 @@
       <c r="J60" s="2">
         <v>1</v>
       </c>
-      <c r="K60" s="23">
+      <c r="K60" s="22">
         <v>0</v>
       </c>
     </row>
@@ -3952,7 +4076,7 @@
       <c r="J61" s="2">
         <v>1</v>
       </c>
-      <c r="K61" s="23">
+      <c r="K61" s="22">
         <v>0</v>
       </c>
     </row>
@@ -3987,7 +4111,7 @@
       <c r="J62" s="2">
         <v>1</v>
       </c>
-      <c r="K62" s="23">
+      <c r="K62" s="22">
         <v>0</v>
       </c>
     </row>
@@ -4022,7 +4146,7 @@
       <c r="J63" s="2">
         <v>2</v>
       </c>
-      <c r="K63" s="23">
+      <c r="K63" s="22">
         <v>0</v>
       </c>
     </row>
@@ -4057,7 +4181,7 @@
       <c r="J64" s="2">
         <v>2</v>
       </c>
-      <c r="K64" s="23">
+      <c r="K64" s="22">
         <v>0</v>
       </c>
     </row>
@@ -4092,7 +4216,7 @@
       <c r="J65" s="2">
         <v>2</v>
       </c>
-      <c r="K65" s="23">
+      <c r="K65" s="22">
         <v>0</v>
       </c>
     </row>
@@ -4127,7 +4251,7 @@
       <c r="J66" s="2">
         <v>2</v>
       </c>
-      <c r="K66" s="23">
+      <c r="K66" s="22">
         <v>0</v>
       </c>
     </row>
@@ -4162,7 +4286,7 @@
       <c r="J67" s="2">
         <v>1</v>
       </c>
-      <c r="K67" s="23">
+      <c r="K67" s="22">
         <v>0</v>
       </c>
     </row>
@@ -4194,10 +4318,10 @@
       <c r="I68" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="J68" s="23">
+      <c r="J68" s="22">
         <v>2</v>
       </c>
-      <c r="K68" s="23">
+      <c r="K68" s="22">
         <v>0</v>
       </c>
     </row>
@@ -4220,19 +4344,19 @@
       <c r="F69" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="G69" s="22">
-        <v>0</v>
-      </c>
-      <c r="H69" s="22">
+      <c r="G69" s="21">
+        <v>0</v>
+      </c>
+      <c r="H69" s="21">
         <v>0</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="J69" s="23">
-        <v>0</v>
-      </c>
-      <c r="K69" s="23">
+      <c r="J69" s="22">
+        <v>0</v>
+      </c>
+      <c r="K69" s="22">
         <v>1</v>
       </c>
     </row>
@@ -4255,10 +4379,10 @@
       <c r="F70" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="G70" s="22">
-        <v>0</v>
-      </c>
-      <c r="H70" s="22">
+      <c r="G70" s="21">
+        <v>0</v>
+      </c>
+      <c r="H70" s="21">
         <v>0</v>
       </c>
       <c r="I70" s="10" t="s">
@@ -4621,13 +4745,180 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-    </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A81" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="G81" s="24">
+        <v>0</v>
+      </c>
+      <c r="H81" s="24">
+        <v>0</v>
+      </c>
+      <c r="I81" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="J81" s="24">
+        <v>0</v>
+      </c>
+      <c r="K81" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A82" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="E82" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="G82" s="24">
+        <v>0</v>
+      </c>
+      <c r="H82" s="24">
+        <v>0</v>
+      </c>
+      <c r="I82" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="J82" s="24">
+        <v>0</v>
+      </c>
+      <c r="K82" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A83" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="G83" s="24">
+        <v>0</v>
+      </c>
+      <c r="H83" s="24">
+        <v>0</v>
+      </c>
+      <c r="I83" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="J83" s="24">
+        <v>0</v>
+      </c>
+      <c r="K83" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A84" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="G84" s="25">
+        <v>-5</v>
+      </c>
+      <c r="H84" s="25">
+        <v>20</v>
+      </c>
+      <c r="I84" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="J84" s="25">
+        <v>1</v>
+      </c>
+      <c r="K84" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A85" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="E85" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="F85" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="G85" s="25">
+        <v>-5</v>
+      </c>
+      <c r="H85" s="25">
+        <v>20</v>
+      </c>
+      <c r="I85" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="J85" s="25">
+        <v>2</v>
+      </c>
+      <c r="K85" s="25">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A1:B78">
@@ -4635,6 +4926,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>